--- a/analysis/post_gemini_data/participant350/Sheet3.xlsx
+++ b/analysis/post_gemini_data/participant350/Sheet3.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,349 +422,217 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>args</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>args2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>args3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>args7</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>asssign</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstat3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>except</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>external5</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>looopbody</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>methodcal</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methodcal4</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var11</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>args</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>args2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>args3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>args7</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>asssign</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>condbody</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>condstat3</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>condstate</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>except</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>external3</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>external4</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>external5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>looopbody</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>loopstate</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>methodcal</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>methodcal4</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>methodcall</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>methodcall3</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>methodcall5</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>methoddec</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>var10</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>var11</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>var5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>var6</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>var8</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -785,17 +641,27 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -804,7 +670,9 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>9</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
@@ -816,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
+          <t>Fixation count</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -826,25 +694,25 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -855,7 +723,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -868,7 +736,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -878,25 +746,25 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>684.0599999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>684.0599999999999</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>467.13</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>178</v>
+        <v>48309.68</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>684.0599999999999</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -907,7 +775,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>146</v>
+        <v>36122.33</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -920,7 +788,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
+          <t>Dwell time (%)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -930,25 +798,25 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>684.0599999999999</v>
+        <v>0.53</v>
       </c>
       <c r="I6" t="n">
-        <v>684.0599999999999</v>
+        <v>0.53</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>467.13</v>
+        <v>0.36</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>48309.68</v>
+        <v>37.27</v>
       </c>
       <c r="R6" t="n">
-        <v>684.0599999999999</v>
+        <v>0.53</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -959,7 +827,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>36122.33</v>
+        <v>27.87</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -972,7 +840,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
+          <t>Fixation duration (ms)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -982,25 +850,25 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.53</v>
+        <v>342.03</v>
       </c>
       <c r="I7" t="n">
-        <v>0.53</v>
+        <v>342.03</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.36</v>
+        <v>467.13</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>37.31</v>
+        <v>271.4</v>
       </c>
       <c r="R7" t="n">
-        <v>0.53</v>
+        <v>342.03</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1011,7 +879,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>27.9</v>
+        <v>247.41</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1024,7 +892,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>First fixation duration (ms)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1034,10 +902,10 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>342.03</v>
+        <v>216.94</v>
       </c>
       <c r="I8" t="n">
-        <v>342.03</v>
+        <v>216.94</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1049,10 +917,10 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>271.4</v>
+        <v>150.18</v>
       </c>
       <c r="R8" t="n">
-        <v>342.03</v>
+        <v>216.94</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1063,7 +931,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>247.41</v>
+        <v>216.94</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1074,38 +942,24 @@
       <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>216.94</v>
-      </c>
-      <c r="I9" t="n">
-        <v>216.94</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>467.13</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>150.18</v>
-      </c>
-      <c r="R9" t="n">
-        <v>216.94</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1114,9 +968,7 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="n">
-        <v>216.94</v>
-      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
@@ -1125,6 +977,854 @@
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>args</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>args2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>args3</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>args7</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>asssign</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>condbody</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>condstat3</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>condstate</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>except</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>external3</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>external4</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>external5</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>looopbody</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>loopstate</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>methodcal</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>methodcal4</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>methodcall</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>methodcall3</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>methodcall5</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>methoddec</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>var10</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>var11</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>var2</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>var5</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>var6</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>var8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Revisit count</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>31</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>30</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>32</v>
+      </c>
+      <c r="S13" t="n">
+        <v>12</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>154</v>
+      </c>
+      <c r="I14" t="n">
+        <v>114</v>
+      </c>
+      <c r="J14" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>178</v>
+      </c>
+      <c r="R14" t="n">
+        <v>89</v>
+      </c>
+      <c r="S14" t="n">
+        <v>22</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>328</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>417.13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>433.69</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1167.94</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1284.97</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5864.49</v>
+      </c>
+      <c r="H15" t="n">
+        <v>51833.82</v>
+      </c>
+      <c r="I15" t="n">
+        <v>42390.54</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6447.54</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5946.83</v>
+      </c>
+      <c r="L15" t="n">
+        <v>30754.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2469.18</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1459.72</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3120</v>
+      </c>
+      <c r="P15" t="n">
+        <v>900.8200000000001</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>48309.68</v>
+      </c>
+      <c r="R15" t="n">
+        <v>35108.47</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7967</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4237.67</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2517.76</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2527.99</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1459.72</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2335.77</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3904.03</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2385.79</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>129137.4</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1434.81</v>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="n">
+        <v>1067.81</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1318.12</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2652.87</v>
+      </c>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="n">
+        <v>400.09</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>37.27</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>34.14</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>417.13</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>216.85</v>
+      </c>
+      <c r="E17" t="n">
+        <v>291.99</v>
+      </c>
+      <c r="F17" t="n">
+        <v>321.24</v>
+      </c>
+      <c r="G17" t="n">
+        <v>366.53</v>
+      </c>
+      <c r="H17" t="n">
+        <v>336.58</v>
+      </c>
+      <c r="I17" t="n">
+        <v>371.85</v>
+      </c>
+      <c r="J17" t="n">
+        <v>257.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>371.68</v>
+      </c>
+      <c r="L17" t="n">
+        <v>410.05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>493.84</v>
+      </c>
+      <c r="N17" t="n">
+        <v>486.57</v>
+      </c>
+      <c r="O17" t="n">
+        <v>624</v>
+      </c>
+      <c r="P17" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>271.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>394.48</v>
+      </c>
+      <c r="S17" t="n">
+        <v>362.14</v>
+      </c>
+      <c r="T17" t="n">
+        <v>605.38</v>
+      </c>
+      <c r="U17" t="n">
+        <v>209.81</v>
+      </c>
+      <c r="V17" t="n">
+        <v>421.33</v>
+      </c>
+      <c r="W17" t="n">
+        <v>486.57</v>
+      </c>
+      <c r="X17" t="n">
+        <v>583.9400000000001</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>278.86</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>795.26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>393.71</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>717.4</v>
+      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>1067.81</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>329.53</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>442.15</v>
+      </c>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="n">
+        <v>200.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>417.13</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>266.94</v>
+      </c>
+      <c r="E18" t="n">
+        <v>483.87</v>
+      </c>
+      <c r="F18" t="n">
+        <v>350.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>483.87</v>
+      </c>
+      <c r="H18" t="n">
+        <v>130.12</v>
+      </c>
+      <c r="I18" t="n">
+        <v>130.12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>483.87</v>
+      </c>
+      <c r="K18" t="n">
+        <v>834.1799999999999</v>
+      </c>
+      <c r="L18" t="n">
+        <v>130.12</v>
+      </c>
+      <c r="M18" t="n">
+        <v>333.69</v>
+      </c>
+      <c r="N18" t="n">
+        <v>659.24</v>
+      </c>
+      <c r="O18" t="n">
+        <v>317</v>
+      </c>
+      <c r="P18" t="n">
+        <v>200.31</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>150.18</v>
+      </c>
+      <c r="R18" t="n">
+        <v>130.12</v>
+      </c>
+      <c r="S18" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>834.1799999999999</v>
+      </c>
+      <c r="U18" t="n">
+        <v>200.31</v>
+      </c>
+      <c r="V18" t="n">
+        <v>834.1799999999999</v>
+      </c>
+      <c r="W18" t="n">
+        <v>659.24</v>
+      </c>
+      <c r="X18" t="n">
+        <v>834.23</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>83.38</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>617.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>550.5599999999999</v>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>1067.81</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>650.6799999999999</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>200.25</v>
+      </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="n">
+        <v>149.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
